--- a/initialization/Tecnam_P92.xlsx
+++ b/initialization/Tecnam_P92.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78a0648eeba3e8dc/Documenti/TesiMagistraleCopiaMATLAB/NUOVOINPUT_TESI_MAGISTRALE/initialization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communitystudentiunina-my.sharepoint.com/personal/c_mirabella_studenti_unina_it/Documents/Desktop/RepositoryGitHubTesiMagistrale/TesiMagistraleClaudioMirabella/initialization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{B71A090F-13AF-4A5A-88D7-912772CE550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7A51FB7-A46F-44DF-BC15-DCEDFF28AADC}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{B71A090F-13AF-4A5A-88D7-912772CE550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C0800AF-BC8B-44D9-B7A0-F7EB29A8D41C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BE25F522-D065-48AD-AE3D-D81CCD9E7F66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE25F522-D065-48AD-AE3D-D81CCD9E7F66}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1876,8 +1876,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9169822" y="13313076"/>
-          <a:ext cx="5838590" cy="1234499"/>
+          <a:off x="8805387" y="13917706"/>
+          <a:ext cx="5893808" cy="1284195"/>
           <a:chOff x="8370794" y="13928912"/>
           <a:chExt cx="5815853" cy="1284195"/>
         </a:xfrm>
@@ -2198,10 +2198,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
@@ -2501,19 +2497,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996CEBCB-4886-45E5-9CE6-0FA6C03F2F1A}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2525,7 +2521,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2539,7 +2535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2551,7 +2547,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -2563,7 +2559,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -2575,7 +2571,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -2587,7 +2583,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +2595,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2607,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2623,7 +2619,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2635,7 +2631,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2647,7 +2643,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2659,7 +2655,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2671,7 +2667,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2683,7 +2679,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2695,7 +2691,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2707,7 +2703,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -2719,7 +2715,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -2731,7 +2727,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -2743,7 +2739,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2755,7 +2751,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2767,7 +2763,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -2779,7 +2775,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2791,7 +2787,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -2803,7 +2799,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -2815,7 +2811,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -2827,7 +2823,7 @@
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -2839,7 +2835,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -2851,7 +2847,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -2863,7 +2859,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>194</v>
       </c>
@@ -2875,7 +2871,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
@@ -2887,7 +2883,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
@@ -2899,7 +2895,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -2911,7 +2907,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
@@ -2923,7 +2919,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>40</v>
       </c>
@@ -2937,7 +2933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>41</v>
       </c>
@@ -2949,7 +2945,7 @@
       </c>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -2961,7 +2957,7 @@
       </c>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
@@ -2973,7 +2969,7 @@
       </c>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -2985,7 +2981,7 @@
       </c>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
@@ -2997,7 +2993,7 @@
       </c>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
@@ -3009,7 +3005,7 @@
       </c>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>47</v>
       </c>
@@ -3021,7 +3017,7 @@
       </c>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
@@ -3035,7 +3031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>59</v>
       </c>
@@ -3047,7 +3043,7 @@
       </c>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>61</v>
       </c>
@@ -3059,7 +3055,7 @@
       </c>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>60</v>
       </c>
@@ -3071,7 +3067,7 @@
       </c>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>205</v>
       </c>
@@ -3083,7 +3079,7 @@
       </c>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>206</v>
       </c>
@@ -3095,7 +3091,7 @@
       </c>
       <c r="D48" s="65"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>56</v>
       </c>
@@ -3109,7 +3105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>57</v>
       </c>
@@ -3121,7 +3117,7 @@
       </c>
       <c r="D50" s="16"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>202</v>
       </c>
@@ -3133,7 +3129,7 @@
       </c>
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>63</v>
       </c>
@@ -3145,7 +3141,7 @@
       </c>
       <c r="D52" s="16"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>62</v>
       </c>
@@ -3157,7 +3153,7 @@
       </c>
       <c r="D53" s="16"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>203</v>
       </c>
@@ -3169,7 +3165,7 @@
       </c>
       <c r="D54" s="16"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>204</v>
       </c>
@@ -3181,7 +3177,7 @@
       </c>
       <c r="D55" s="16"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>68</v>
       </c>
@@ -3195,7 +3191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>69</v>
       </c>
@@ -3207,7 +3203,7 @@
       </c>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>94</v>
       </c>
@@ -3219,7 +3215,7 @@
       </c>
       <c r="D58" s="21"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>95</v>
       </c>
@@ -3231,7 +3227,7 @@
       </c>
       <c r="D59" s="21"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>96</v>
       </c>
@@ -3243,7 +3239,7 @@
       </c>
       <c r="D60" s="21"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>70</v>
       </c>
@@ -3255,7 +3251,7 @@
       </c>
       <c r="D61" s="21"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>71</v>
       </c>
@@ -3267,7 +3263,7 @@
       </c>
       <c r="D62" s="21"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>73</v>
       </c>
@@ -3279,7 +3275,7 @@
       </c>
       <c r="D63" s="21"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>74</v>
       </c>
@@ -3291,7 +3287,7 @@
       </c>
       <c r="D64" s="21"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>91</v>
       </c>
@@ -3303,7 +3299,7 @@
       </c>
       <c r="D65" s="21"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>92</v>
       </c>
@@ -3315,7 +3311,7 @@
       </c>
       <c r="D66" s="21"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>93</v>
       </c>
@@ -3327,7 +3323,7 @@
       </c>
       <c r="D67" s="21"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>192</v>
       </c>
@@ -3339,7 +3335,7 @@
       </c>
       <c r="D68" s="21"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>228</v>
       </c>
@@ -3351,7 +3347,7 @@
       </c>
       <c r="D69" s="21"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>232</v>
       </c>
@@ -3363,7 +3359,7 @@
       </c>
       <c r="D70" s="21"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
         <v>88</v>
       </c>
@@ -3375,7 +3371,7 @@
       </c>
       <c r="D71" s="21"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>89</v>
       </c>
@@ -3387,7 +3383,7 @@
       </c>
       <c r="D72" s="21"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>90</v>
       </c>
@@ -3399,7 +3395,7 @@
       </c>
       <c r="D73" s="21"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>76</v>
       </c>
@@ -3413,7 +3409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>77</v>
       </c>
@@ -3425,7 +3421,7 @@
       </c>
       <c r="D75" s="23"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>211</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>207</v>
       </c>
@@ -3452,7 +3448,7 @@
       </c>
       <c r="D77" s="23"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>208</v>
       </c>
@@ -3464,7 +3460,7 @@
       </c>
       <c r="D78" s="23"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>78</v>
       </c>
@@ -3476,7 +3472,7 @@
       </c>
       <c r="D79" s="23"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>79</v>
       </c>
@@ -3488,7 +3484,7 @@
       </c>
       <c r="D80" s="23"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>82</v>
       </c>
@@ -3502,7 +3498,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>84</v>
       </c>
@@ -3514,7 +3510,7 @@
       </c>
       <c r="D82" s="27"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>85</v>
       </c>
@@ -3526,7 +3522,7 @@
       </c>
       <c r="D83" s="27"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>86</v>
       </c>
@@ -3538,7 +3534,7 @@
       </c>
       <c r="D84" s="27"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>87</v>
       </c>
@@ -3550,7 +3546,7 @@
       </c>
       <c r="D85" s="27"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>97</v>
       </c>
@@ -3562,7 +3558,7 @@
       </c>
       <c r="D86" s="27"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>229</v>
       </c>
@@ -3574,7 +3570,7 @@
       </c>
       <c r="D87" s="27"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>230</v>
       </c>
@@ -3586,7 +3582,7 @@
       </c>
       <c r="D88" s="27"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>98</v>
       </c>
@@ -3598,7 +3594,7 @@
       </c>
       <c r="D89" s="27"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>100</v>
       </c>
@@ -3610,7 +3606,7 @@
       </c>
       <c r="D90" s="27"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="24" t="s">
         <v>101</v>
       </c>
@@ -3622,7 +3618,7 @@
       </c>
       <c r="D91" s="27"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>102</v>
       </c>
@@ -3634,7 +3630,7 @@
       </c>
       <c r="D92" s="27"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>103</v>
       </c>
@@ -3646,7 +3642,7 @@
       </c>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
         <v>104</v>
       </c>
@@ -3658,7 +3654,7 @@
       </c>
       <c r="D94" s="27"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="24" t="s">
         <v>105</v>
       </c>
@@ -3670,7 +3666,7 @@
       </c>
       <c r="D95" s="27"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>106</v>
       </c>
@@ -3682,7 +3678,7 @@
       </c>
       <c r="D96" s="27"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>108</v>
       </c>
@@ -3694,7 +3690,7 @@
       </c>
       <c r="D97" s="27"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>109</v>
       </c>
@@ -3708,7 +3704,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>209</v>
       </c>
@@ -3720,7 +3716,7 @@
       </c>
       <c r="D99" s="30"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>210</v>
       </c>
@@ -3732,7 +3728,7 @@
       </c>
       <c r="D100" s="30"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>110</v>
       </c>
@@ -3744,7 +3740,7 @@
       </c>
       <c r="D101" s="30"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
         <v>111</v>
       </c>
@@ -3756,7 +3752,7 @@
       </c>
       <c r="D102" s="30"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>114</v>
       </c>
@@ -3768,7 +3764,7 @@
       </c>
       <c r="D103" s="30"/>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>116</v>
       </c>
@@ -3782,7 +3778,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>118</v>
       </c>
@@ -3794,7 +3790,7 @@
       </c>
       <c r="D105" s="32"/>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>119</v>
       </c>
@@ -3806,7 +3802,7 @@
       </c>
       <c r="D106" s="32"/>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>121</v>
       </c>
@@ -3818,7 +3814,7 @@
       </c>
       <c r="D107" s="32"/>
     </row>
-    <row r="108" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>198</v>
       </c>
@@ -3830,7 +3826,7 @@
       </c>
       <c r="D108" s="32"/>
     </row>
-    <row r="109" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>199</v>
       </c>
@@ -3842,7 +3838,7 @@
       </c>
       <c r="D109" s="32"/>
     </row>
-    <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
         <v>200</v>
       </c>
@@ -3854,7 +3850,7 @@
       </c>
       <c r="D110" s="32"/>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
         <v>201</v>
       </c>
@@ -3866,7 +3862,7 @@
       </c>
       <c r="D111" s="32"/>
     </row>
-    <row r="112" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
         <v>124</v>
       </c>
@@ -3878,7 +3874,7 @@
       </c>
       <c r="D112" s="32"/>
     </row>
-    <row r="113" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
         <v>125</v>
       </c>
@@ -3890,7 +3886,7 @@
       </c>
       <c r="D113" s="32"/>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>122</v>
       </c>
@@ -3902,7 +3898,7 @@
       </c>
       <c r="D114" s="32"/>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
         <v>123</v>
       </c>
@@ -3914,7 +3910,7 @@
       </c>
       <c r="D115" s="32"/>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="35" t="s">
         <v>127</v>
       </c>
@@ -3926,7 +3922,7 @@
       </c>
       <c r="D116" s="32"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
         <v>129</v>
       </c>
@@ -3940,7 +3936,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="35" t="s">
         <v>131</v>
       </c>
@@ -3952,7 +3948,7 @@
       </c>
       <c r="D118" s="38"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="35" t="s">
         <v>133</v>
       </c>
@@ -3964,7 +3960,7 @@
       </c>
       <c r="D119" s="38"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="35" t="s">
         <v>135</v>
       </c>
@@ -3976,7 +3972,7 @@
       </c>
       <c r="D120" s="38"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="35" t="s">
         <v>136</v>
       </c>
@@ -3988,7 +3984,7 @@
       </c>
       <c r="D121" s="38"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="35" t="s">
         <v>138</v>
       </c>
@@ -4000,7 +3996,7 @@
       </c>
       <c r="D122" s="38"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="35" t="s">
         <v>173</v>
       </c>
@@ -4012,7 +4008,7 @@
       </c>
       <c r="D123" s="38"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="39" t="s">
         <v>175</v>
       </c>
@@ -4024,7 +4020,7 @@
       </c>
       <c r="D124" s="35"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>140</v>
       </c>
@@ -4036,7 +4032,7 @@
       </c>
       <c r="D125" s="35"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>150</v>
       </c>
@@ -4050,7 +4046,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>151</v>
       </c>
@@ -4062,7 +4058,7 @@
       </c>
       <c r="D127" s="45"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>152</v>
       </c>
@@ -4074,7 +4070,7 @@
       </c>
       <c r="D128" s="45"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>180</v>
       </c>
@@ -4086,7 +4082,7 @@
       </c>
       <c r="D129" s="45"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>153</v>
       </c>
@@ -4098,7 +4094,7 @@
       </c>
       <c r="D130" s="45"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>193</v>
       </c>
@@ -4110,7 +4106,7 @@
       </c>
       <c r="D131" s="45"/>
     </row>
-    <row r="132" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>142</v>
       </c>
@@ -4122,7 +4118,7 @@
       </c>
       <c r="D132" s="45"/>
     </row>
-    <row r="133" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>144</v>
       </c>
@@ -4134,7 +4130,7 @@
       </c>
       <c r="D133" s="17"/>
     </row>
-    <row r="134" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>146</v>
       </c>
@@ -4146,7 +4142,7 @@
       </c>
       <c r="D134" s="17"/>
     </row>
-    <row r="135" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A135" s="20" t="s">
         <v>148</v>
       </c>
@@ -4158,7 +4154,7 @@
       </c>
       <c r="D135" s="17"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="46" t="s">
         <v>154</v>
       </c>
@@ -4170,7 +4166,7 @@
       </c>
       <c r="D136" s="21"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="46" t="s">
         <v>156</v>
       </c>
@@ -4184,7 +4180,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="46" t="s">
         <v>157</v>
       </c>
@@ -4196,7 +4192,7 @@
       </c>
       <c r="D138" s="47"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="46" t="s">
         <v>158</v>
       </c>
@@ -4208,7 +4204,7 @@
       </c>
       <c r="D139" s="47"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="46" t="s">
         <v>159</v>
       </c>
@@ -4220,7 +4216,7 @@
       </c>
       <c r="D140" s="47"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="46" t="s">
         <v>160</v>
       </c>
@@ -4232,7 +4228,7 @@
       </c>
       <c r="D141" s="47"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="46" t="s">
         <v>161</v>
       </c>
@@ -4244,7 +4240,7 @@
       </c>
       <c r="D142" s="47"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="46" t="s">
         <v>196</v>
       </c>
@@ -4256,7 +4252,7 @@
       </c>
       <c r="D143" s="47"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="46" t="s">
         <v>171</v>
       </c>
@@ -4268,7 +4264,7 @@
       </c>
       <c r="D144" s="47"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>172</v>
       </c>
@@ -4280,7 +4276,7 @@
       </c>
       <c r="D145" s="46"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>164</v>
       </c>
@@ -4292,7 +4288,7 @@
       </c>
       <c r="D146" s="46"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>165</v>
       </c>
@@ -4306,7 +4302,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>166</v>
       </c>
@@ -4318,7 +4314,7 @@
       </c>
       <c r="D148" s="13"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="53" t="s">
         <v>169</v>
       </c>
@@ -4330,7 +4326,7 @@
       </c>
       <c r="D149" s="13"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="53" t="s">
         <v>176</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="54" t="s">
         <v>177</v>
       </c>
@@ -4356,7 +4352,7 @@
       </c>
       <c r="D151" s="55"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="56" t="s">
         <v>179</v>
       </c>
@@ -4368,7 +4364,7 @@
       </c>
       <c r="D152" s="55"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="57" t="s">
         <v>182</v>
       </c>
@@ -4382,7 +4378,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="57" t="s">
         <v>190</v>
       </c>
@@ -4396,7 +4392,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="57" t="s">
         <v>191</v>
       </c>
@@ -4408,7 +4404,7 @@
       </c>
       <c r="D155" s="64"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="57" t="s">
         <v>189</v>
       </c>
@@ -4420,7 +4416,7 @@
       </c>
       <c r="D156" s="64"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="57" t="s">
         <v>183</v>
       </c>
@@ -4432,7 +4428,7 @@
       </c>
       <c r="D157" s="64"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="59" t="s">
         <v>184</v>
       </c>
@@ -4444,7 +4440,7 @@
       </c>
       <c r="D158" s="58"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="61" t="s">
         <v>186</v>
       </c>
@@ -4456,7 +4452,7 @@
       </c>
       <c r="D159" s="58"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="61" t="s">
         <v>187</v>
       </c>
@@ -4470,7 +4466,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="62" t="s">
         <v>188</v>
       </c>
@@ -4482,7 +4478,7 @@
       </c>
       <c r="D161" s="63"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="24" t="s">
         <v>215</v>
       </c>
@@ -4494,7 +4490,7 @@
       </c>
       <c r="D162" s="63"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="24" t="s">
         <v>216</v>
       </c>
@@ -4508,7 +4504,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
         <v>217</v>
       </c>
@@ -4520,7 +4516,7 @@
       </c>
       <c r="D164" s="27"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="s">
         <v>222</v>
       </c>
@@ -4532,7 +4528,7 @@
       </c>
       <c r="D165" s="27"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="24" t="s">
         <v>223</v>
       </c>
@@ -4544,7 +4540,7 @@
       </c>
       <c r="D166" s="27"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="24" t="s">
         <v>219</v>
       </c>
@@ -4556,7 +4552,7 @@
       </c>
       <c r="D167" s="27"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="24" t="s">
         <v>224</v>
       </c>
@@ -4568,7 +4564,7 @@
       </c>
       <c r="D168" s="27"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
         <v>227</v>
       </c>
@@ -4580,7 +4576,7 @@
       </c>
       <c r="D169" s="27"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="68" t="s">
         <v>238</v>
       </c>
@@ -4592,7 +4588,7 @@
       </c>
       <c r="D170" s="27"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="28" t="s">
         <v>240</v>
       </c>
@@ -4606,7 +4602,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="28" t="s">
         <v>237</v>
       </c>
@@ -4618,7 +4614,7 @@
       </c>
       <c r="D172" s="30"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="28" t="s">
         <v>236</v>
       </c>
@@ -4630,7 +4626,7 @@
       </c>
       <c r="D173" s="30"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="29" t="s">
         <v>242</v>
       </c>
@@ -4642,7 +4638,7 @@
       </c>
       <c r="D174" s="30"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D175" s="30"/>
     </row>
   </sheetData>
